--- a/gform_JT_DK_LP.xlsx
+++ b/gform_JT_DK_LP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5498">
   <si>
     <t>Timestamp</t>
   </si>
@@ -17980,6 +17980,54 @@
   </si>
   <si>
     <t>300X100CM</t>
+  </si>
+  <si>
+    <t>14 FEBRUARY 2025</t>
+  </si>
+  <si>
+    <t>BS620</t>
+  </si>
+  <si>
+    <t>BENY@GMIAL.COM</t>
+  </si>
+  <si>
+    <t>BENNN</t>
+  </si>
+  <si>
+    <t>HANY</t>
+  </si>
+  <si>
+    <t>MALAHAANG</t>
+  </si>
+  <si>
+    <t>PROBOLINNGGO</t>
+  </si>
+  <si>
+    <t>PAKAI TIANG PALING GEDEK</t>
+  </si>
+  <si>
+    <t>BS623</t>
+  </si>
+  <si>
+    <t>12X12M</t>
+  </si>
+  <si>
+    <t>BS624</t>
+  </si>
+  <si>
+    <t>BS625</t>
+  </si>
+  <si>
+    <t>BS626</t>
+  </si>
+  <si>
+    <t>BS627</t>
+  </si>
+  <si>
+    <t>BS628</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA (PAKAI MATA AYAM)</t>
   </si>
   <si>
     <t>autocratn</t>
@@ -18557,7 +18605,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z738"/>
+  <dimension ref="A1:Z745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A656"/>
@@ -65072,6 +65120,335 @@
         <v>5390</v>
       </c>
       <c r="O738" s="7" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="739" spans="1:26">
+      <c r="A739" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B739" s="7" t="s">
+        <v>5427</v>
+      </c>
+      <c r="C739" s="17" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D739" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E739" s="17" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F739" s="17" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G739" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H739" s="18" t="s">
+        <v>5432</v>
+      </c>
+      <c r="I739" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J739" s="7" t="s">
+        <v>5405</v>
+      </c>
+      <c r="K739" s="18" t="s">
+        <v>5425</v>
+      </c>
+      <c r="L739" s="17">
+        <v>6</v>
+      </c>
+      <c r="M739" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N739" s="18" t="s">
+        <v>5390</v>
+      </c>
+      <c r="O739" s="7" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="740" spans="1:26">
+      <c r="A740" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B740" s="7" t="s">
+        <v>5434</v>
+      </c>
+      <c r="C740" s="17" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D740" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E740" s="17" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F740" s="17" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G740" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H740" s="18" t="s">
+        <v>5432</v>
+      </c>
+      <c r="I740" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J740" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K740" s="18" t="s">
+        <v>5435</v>
+      </c>
+      <c r="L740" s="17">
+        <v>4</v>
+      </c>
+      <c r="M740" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N740" s="18" t="s">
+        <v>5390</v>
+      </c>
+      <c r="O740" s="7" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="741" spans="1:26">
+      <c r="A741" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B741" s="7" t="s">
+        <v>5436</v>
+      </c>
+      <c r="C741" s="17" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D741" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E741" s="17" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F741" s="17" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G741" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H741" s="18" t="s">
+        <v>5432</v>
+      </c>
+      <c r="I741" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J741" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K741" s="18" t="s">
+        <v>5435</v>
+      </c>
+      <c r="L741" s="17">
+        <v>4</v>
+      </c>
+      <c r="M741" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N741" s="18" t="s">
+        <v>5390</v>
+      </c>
+      <c r="O741" s="7" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="742" spans="1:26">
+      <c r="A742" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B742" s="7" t="s">
+        <v>5437</v>
+      </c>
+      <c r="C742" s="17" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D742" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E742" s="17" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F742" s="17" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G742" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H742" s="18" t="s">
+        <v>5432</v>
+      </c>
+      <c r="I742" s="17" t="s">
+        <v>5414</v>
+      </c>
+      <c r="J742" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K742" s="18" t="s">
+        <v>5435</v>
+      </c>
+      <c r="L742" s="17">
+        <v>4</v>
+      </c>
+      <c r="M742" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N742" s="18" t="s">
+        <v>5390</v>
+      </c>
+      <c r="O742" s="7" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="743" spans="1:26">
+      <c r="A743" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B743" s="7" t="s">
+        <v>5438</v>
+      </c>
+      <c r="C743" s="17" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D743" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E743" s="17" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F743" s="17" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G743" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H743" s="18" t="s">
+        <v>5432</v>
+      </c>
+      <c r="I743" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J743" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K743" s="18" t="s">
+        <v>5435</v>
+      </c>
+      <c r="L743" s="17">
+        <v>4</v>
+      </c>
+      <c r="M743" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N743" s="18" t="s">
+        <v>5390</v>
+      </c>
+      <c r="O743" s="7" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="744" spans="1:26">
+      <c r="A744" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>5439</v>
+      </c>
+      <c r="C744" s="17" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D744" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E744" s="17" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F744" s="17" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G744" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H744" s="18" t="s">
+        <v>5432</v>
+      </c>
+      <c r="I744" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J744" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K744" s="18" t="s">
+        <v>5435</v>
+      </c>
+      <c r="L744" s="17">
+        <v>4</v>
+      </c>
+      <c r="M744" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N744" s="18" t="s">
+        <v>5390</v>
+      </c>
+      <c r="O744" s="7" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="745" spans="1:26">
+      <c r="A745" s="7" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B745" s="7" t="s">
+        <v>5440</v>
+      </c>
+      <c r="C745" s="17" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D745" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E745" s="17" t="s">
+        <v>5429</v>
+      </c>
+      <c r="F745" s="17" t="s">
+        <v>5430</v>
+      </c>
+      <c r="G745" s="7" t="s">
+        <v>5431</v>
+      </c>
+      <c r="H745" s="18" t="s">
+        <v>5432</v>
+      </c>
+      <c r="I745" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J745" s="7" t="s">
+        <v>5441</v>
+      </c>
+      <c r="K745" s="18" t="s">
+        <v>5435</v>
+      </c>
+      <c r="L745" s="17">
+        <v>4</v>
+      </c>
+      <c r="M745" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N745" s="18" t="s">
+        <v>5390</v>
+      </c>
+      <c r="O745" s="7" t="s">
         <v>5408</v>
       </c>
     </row>
@@ -67144,58 +67521,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>5426</v>
+        <v>5442</v>
       </c>
       <c r="B1" t="s">
-        <v>5427</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5428</v>
+        <v>5444</v>
       </c>
       <c r="B2" t="s">
-        <v>5429</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5430</v>
+        <v>5446</v>
       </c>
       <c r="B3" t="s">
-        <v>5431</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5432</v>
+        <v>5448</v>
       </c>
       <c r="B4" t="s">
-        <v>5433</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5434</v>
+        <v>5450</v>
       </c>
       <c r="B5" t="s">
-        <v>5435</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5436</v>
+        <v>5452</v>
       </c>
       <c r="B6" t="s">
-        <v>5431</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>5437</v>
+        <v>5453</v>
       </c>
       <c r="B7" t="s">
-        <v>5438</v>
+        <v>5454</v>
       </c>
     </row>
   </sheetData>
@@ -67220,102 +67597,102 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" t="s">
-        <v>5439</v>
+        <v>5455</v>
       </c>
       <c r="B1" t="s">
-        <v>5440</v>
+        <v>5456</v>
       </c>
       <c r="C1" t="s">
-        <v>5441</v>
+        <v>5457</v>
       </c>
       <c r="D1" t="s">
-        <v>5442</v>
+        <v>5458</v>
       </c>
       <c r="E1" t="s">
-        <v>5443</v>
+        <v>5459</v>
       </c>
       <c r="F1" t="s">
-        <v>5444</v>
+        <v>5460</v>
       </c>
       <c r="G1" t="s">
-        <v>5445</v>
+        <v>5461</v>
       </c>
       <c r="H1" t="s">
-        <v>5446</v>
+        <v>5462</v>
       </c>
       <c r="I1" t="s">
-        <v>5447</v>
+        <v>5463</v>
       </c>
       <c r="J1" t="s">
-        <v>5448</v>
+        <v>5464</v>
       </c>
       <c r="K1" t="s">
-        <v>5449</v>
+        <v>5465</v>
       </c>
       <c r="L1" t="s">
-        <v>5450</v>
+        <v>5466</v>
       </c>
       <c r="M1" t="s">
-        <v>5451</v>
+        <v>5467</v>
       </c>
       <c r="N1" t="s">
-        <v>5452</v>
+        <v>5468</v>
       </c>
       <c r="O1" t="s">
-        <v>5453</v>
+        <v>5469</v>
       </c>
       <c r="P1" t="s">
-        <v>5454</v>
+        <v>5470</v>
       </c>
       <c r="Q1" t="s">
-        <v>5455</v>
+        <v>5471</v>
       </c>
       <c r="R1" t="s">
-        <v>5456</v>
+        <v>5472</v>
       </c>
       <c r="S1" t="s">
-        <v>5457</v>
+        <v>5473</v>
       </c>
       <c r="T1" t="s">
-        <v>5458</v>
+        <v>5474</v>
       </c>
       <c r="U1" t="s">
-        <v>5459</v>
+        <v>5475</v>
       </c>
       <c r="V1" t="s">
-        <v>5460</v>
+        <v>5476</v>
       </c>
       <c r="W1" t="s">
-        <v>5461</v>
+        <v>5477</v>
       </c>
       <c r="X1" t="s">
-        <v>5462</v>
+        <v>5478</v>
       </c>
       <c r="Y1" t="s">
-        <v>5463</v>
+        <v>5479</v>
       </c>
       <c r="Z1" t="s">
-        <v>5464</v>
+        <v>5480</v>
       </c>
       <c r="AA1" t="s">
-        <v>5465</v>
+        <v>5481</v>
       </c>
       <c r="AB1" t="s">
-        <v>5466</v>
+        <v>5482</v>
       </c>
       <c r="AC1" t="s">
-        <v>5467</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>5468</v>
+        <v>5484</v>
       </c>
       <c r="B2" t="s">
-        <v>5469</v>
+        <v>5485</v>
       </c>
       <c r="C2" t="s">
-        <v>5470</v>
+        <v>5486</v>
       </c>
       <c r="D2">
         <v>603661013</v>
@@ -67327,31 +67704,31 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>5471</v>
+        <v>5487</v>
       </c>
       <c r="H2" t="s">
-        <v>5472</v>
+        <v>5488</v>
       </c>
       <c r="I2" t="s">
-        <v>5472</v>
+        <v>5488</v>
       </c>
       <c r="J2" t="s">
-        <v>5473</v>
+        <v>5489</v>
       </c>
       <c r="K2" t="s">
-        <v>5474</v>
+        <v>5490</v>
       </c>
       <c r="L2" t="s">
-        <v>5474</v>
+        <v>5490</v>
       </c>
       <c r="M2" t="s">
-        <v>5475</v>
+        <v>5491</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>5476</v>
+        <v>5492</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -67366,25 +67743,25 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>5477</v>
+        <v>5493</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>5478</v>
+        <v>5494</v>
       </c>
       <c r="Z2" t="s">
-        <v>5479</v>
+        <v>5495</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>5480</v>
+        <v>5496</v>
       </c>
       <c r="AC2" t="s">
-        <v>5481</v>
+        <v>5497</v>
       </c>
     </row>
   </sheetData>
